--- a/xlsx/旅游_intext.xlsx
+++ b/xlsx/旅游_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>旅游</t>
   </si>
@@ -29,19 +29,19 @@
     <t>旅行</t>
   </si>
   <si>
-    <t>政策_政策_美國_旅游</t>
+    <t>政策_政策_美国_旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%AD%A1%E6%BA%AA</t>
   </si>
   <si>
-    <t>合歡溪</t>
+    <t>合欢溪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%8D%97</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A%E6%97%85%E9%A4%A8</t>
   </si>
   <si>
-    <t>汽車旅館</t>
+    <t>汽车旅馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%B8%8A%E6%97%85%E6%B8%B8</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E6%99%82</t>
   </si>
   <si>
-    <t>小時</t>
+    <t>小时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>生態旅遊</t>
+    <t>生态旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E6%A5%AD%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>畢業旅遊</t>
+    <t>毕业旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9C%9C%E6%9C%88%E6%97%85%E6%B8%B8</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>性旅遊</t>
+    <t>性旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>醫療旅遊</t>
+    <t>医疗旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%9A%E8%AE%AE%E6%97%85%E6%B8%B8</t>
@@ -149,25 +149,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>商務旅遊</t>
+    <t>商务旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A9%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>互助旅遊</t>
+    <t>互助旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%88%AD%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>戰爭旅遊</t>
+    <t>战争旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A9%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>自助旅遊</t>
+    <t>自助旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B7%E5%A4%96%E8%BF%90%E5%8A%A8</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A%E9%86%AB%E5%AD%B8</t>
   </si>
   <si>
-    <t>旅遊醫學</t>
+    <t>旅游医学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%A1%8C</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E5%AD%B8%E5%9C%98</t>
   </si>
   <si>
-    <t>遊學團</t>
+    <t>游学团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E7%A4%BE</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E5%9C%98</t>
   </si>
   <si>
-    <t>旅行團</t>
+    <t>旅行团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%86%E9%98%9F</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>導遊</t>
+    <t>导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E5%AE%A2_(%E7%94%B5%E5%BD%B1)</t>
@@ -239,31 +239,28 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E8%81%96</t>
   </si>
   <si>
-    <t>朝聖</t>
+    <t>朝圣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%98%E9%AB%94%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>團體旅遊</t>
+    <t>团体旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A9%E6%97%85%E6%B8%B8</t>
   </si>
   <si>
-    <t>自助旅游</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E8%87%AA%E5%8A%A9%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>半自助旅遊</t>
+    <t>半自助旅游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%A9%E7%8D%B5%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>狩獵旅行</t>
+    <t>狩猎旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E4%B8%9A%E6%97%85%E8%A1%8C</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AF%E9%81%8A</t>
   </si>
   <si>
-    <t>壯遊</t>
+    <t>壮游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E8%89%B2%E6%97%85%E6%B8%B8</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%A0%A1%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>學校旅行</t>
+    <t>学校旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%BE%E5%BE%85</t>
@@ -323,7 +320,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A5%E5%BE%85%E5%93%A1</t>
   </si>
   <si>
-    <t>接待員</t>
+    <t>接待员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%92%E5%BA%97%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -371,13 +368,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B7%E7%85%A7</t>
   </si>
   <si>
-    <t>護照</t>
+    <t>护照</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B0%BD%E8%AD%89</t>
   </si>
   <si>
-    <t>簽證</t>
+    <t>签证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E6%96%87%E5%AD%A6</t>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%85%A8%E7%90%83%E5%8C%96</t>
   </si>
   <si>
-    <t>經濟全球化</t>
+    <t>经济全球化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -449,61 +446,58 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%B2%BF%E6%98%93%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界貿易組織</t>
+    <t>世界贸易组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E5%9C%8B%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>跨國公司</t>
+    <t>跨国公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>世界銀行</t>
+    <t>世界银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%88%91%E8%AD%A6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際刑警組織</t>
+    <t>国际刑警组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E9%81%8A</t>
   </si>
   <si>
-    <t>旅遊</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%BF%E6%98%93%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際貿易年表</t>
+    <t>国际贸易年表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96%E6%8C%87%E6%95%B0</t>
@@ -515,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -527,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2006,7 +2000,7 @@
         <v>77</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2032,10 +2026,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2061,10 +2055,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2090,10 +2084,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2119,10 +2113,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2148,10 +2142,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2206,10 +2200,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2235,10 +2229,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2264,10 +2258,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2293,10 +2287,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2322,10 +2316,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2351,10 +2345,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2380,10 +2374,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2409,10 +2403,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2438,10 +2432,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2467,10 +2461,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2496,10 +2490,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2554,10 +2548,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2583,10 +2577,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2612,10 +2606,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2641,10 +2635,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2670,10 +2664,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2699,10 +2693,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2728,10 +2722,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2757,10 +2751,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2786,10 +2780,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2815,10 +2809,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2844,10 +2838,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -2873,10 +2867,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2902,10 +2896,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>7</v>
@@ -2931,10 +2925,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2960,10 +2954,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2989,10 +2983,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3018,10 +3012,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3047,10 +3041,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3076,10 +3070,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3105,10 +3099,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3134,10 +3128,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3163,10 +3157,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3192,10 +3186,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3221,10 +3215,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3250,10 +3244,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>57</v>
@@ -3279,10 +3273,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3308,10 +3302,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3337,10 +3331,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3366,10 +3360,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3395,10 +3389,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3424,10 +3418,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
